--- a/doku/Prozess-Schrittkette.xlsx
+++ b/doku/Prozess-Schrittkette.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Jan Philipp\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\zz_Mechatronisches_Projekt\doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -306,10 +306,6 @@
     <t>Plot</t>
   </si>
   <si>
-    <t>??
-(sinnlos)</t>
-  </si>
-  <si>
     <t>Einrichtung
 neue Messung</t>
   </si>
@@ -335,6 +331,9 @@
   </si>
   <si>
     <t>LEGENDE</t>
+  </si>
+  <si>
+    <t>(Integration in Plot)</t>
   </si>
 </sst>
 </file>
@@ -561,39 +560,15 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -604,9 +579,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -661,6 +633,33 @@
     <xf numFmtId="0" fontId="3" fillId="10" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -944,8 +943,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F40" sqref="F40:F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -960,14 +959,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -990,525 +989,528 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="20" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="7" t="s">
+      <c r="C3" s="4"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="45" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="8"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="45"/>
+      <c r="F4" s="42"/>
       <c r="H4" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="H6" s="18" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="H7" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="4"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="H8" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="H9" s="22" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="4"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="H10" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="4"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="4"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C13" s="9"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="40" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="4"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="42"/>
+      <c r="F15" s="42"/>
+    </row>
+    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="C16" s="4"/>
+      <c r="D16" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="C17" s="9"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="37"/>
+      <c r="F18" s="39" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="4"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="4"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="4"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="42"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="9"/>
+      <c r="D22" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="16"/>
+      <c r="F22" s="38"/>
+    </row>
+    <row r="23" spans="1:6" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="39" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="4"/>
+      <c r="D24" s="15"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+    </row>
+    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="4"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>62</v>
+      </c>
+      <c r="C26" s="4"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" s="4"/>
+      <c r="D27" s="15"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="42"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="E28" s="16"/>
+      <c r="F28" s="38"/>
+    </row>
+    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B29" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" s="13"/>
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="13"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="37" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="9"/>
+      <c r="D31" s="16"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="38"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" s="7"/>
+      <c r="D32" s="14"/>
+      <c r="E32" s="14"/>
+      <c r="F32" s="39" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="5"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="5"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="H6" s="27" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="H7" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="5"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="H8" s="36" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="5"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="H9" s="31" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>47</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="H10" s="41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>49</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="13"/>
-      <c r="D13" s="25"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
-    </row>
-    <row r="14" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="11"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="B17" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="13"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="16" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="B19" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="5"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="5"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21" s="35" t="s">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B33" s="26" t="s">
+        <v>68</v>
+      </c>
+      <c r="C33" s="4"/>
+      <c r="D33" s="15"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="40"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B34" s="26" t="s">
         <v>57</v>
       </c>
-      <c r="C21" s="5"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E22" s="25"/>
-      <c r="F22" s="14"/>
-    </row>
-    <row r="23" spans="1:6" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="C23" s="11"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="15"/>
-      <c r="F23" s="16" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C25" s="5"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="35" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="5"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="35" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" s="5"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="13"/>
-      <c r="D28" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E28" s="25"/>
-      <c r="F28" s="14"/>
-    </row>
-    <row r="29" spans="1:6" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B29" s="44" t="s">
-        <v>66</v>
-      </c>
-      <c r="C29" s="21"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="21"/>
-    </row>
-    <row r="30" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B30" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="22"/>
-      <c r="E30" s="22"/>
-      <c r="F30" s="15" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="13"/>
-      <c r="D31" s="25"/>
-      <c r="E31" s="25"/>
-      <c r="F31" s="14"/>
-    </row>
-    <row r="32" spans="1:6" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B32" s="39" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="16" t="s">
+      <c r="C34" s="4"/>
+      <c r="D34" s="15"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="40"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="15"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="40"/>
+    </row>
+    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="15"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="40"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>78</v>
+      </c>
+      <c r="C37" s="4"/>
+      <c r="D37" s="15"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="40"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B38" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C38" s="4"/>
+      <c r="D38" s="15"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="40"/>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="9"/>
+      <c r="D39" s="16"/>
+      <c r="E39" s="16"/>
+      <c r="F39" s="41"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B40" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="C40" s="7"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="14"/>
+      <c r="F40" s="39" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B33" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="C33" s="5"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="17"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="35" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" s="5"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="17"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B35" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="C35" s="5"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="17"/>
-    </row>
-    <row r="36" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>77</v>
-      </c>
-      <c r="C36" s="5"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="17"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="B37" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="5"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="17"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B38" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="C38" s="5"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="17"/>
-    </row>
-    <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="12" t="s">
-        <v>73</v>
-      </c>
-      <c r="B39" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="13"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="23"/>
-    </row>
-    <row r="40" spans="1:6" ht="26.25" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="B40" s="40" t="s">
-        <v>81</v>
-      </c>
-      <c r="C40" s="11"/>
-      <c r="D40" s="22"/>
-      <c r="E40" s="22"/>
-      <c r="F40" s="16" t="s">
-        <v>90</v>
-      </c>
-    </row>
     <row r="41" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="33" t="s">
+      <c r="B41" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="C41" s="5"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="8"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="15"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="42"/>
     </row>
     <row r="42" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="B42" s="33" t="s">
+      <c r="B42" s="24" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="5"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="9"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E4:E13"/>
+    <mergeCell ref="F3:F13"/>
     <mergeCell ref="F30:F31"/>
     <mergeCell ref="F32:F39"/>
     <mergeCell ref="F40:F42"/>
@@ -1518,9 +1520,6 @@
     <mergeCell ref="E18:E21"/>
     <mergeCell ref="F23:F28"/>
     <mergeCell ref="E23:E27"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E4:E13"/>
-    <mergeCell ref="F3:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <ignoredErrors>
